--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dafa Zulfikar\Documents\myWork\Data-Entry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D0599D-9402-4F7F-B130-8B833FF4F2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F373FEA-3D96-4527-8135-70FF7AA5C77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>firstname</t>
   </si>
@@ -45,37 +45,16 @@
     <t>department</t>
   </si>
   <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Lapangan</t>
-  </si>
-  <si>
-    <t>Budi</t>
-  </si>
-  <si>
-    <t>Setiawan</t>
-  </si>
-  <si>
-    <t>budisetiawan@mail.com</t>
-  </si>
-  <si>
-    <t>Bambang</t>
-  </si>
-  <si>
-    <t>Sugeni</t>
-  </si>
-  <si>
-    <t>bambangsugeni@mail.com</t>
-  </si>
-  <si>
-    <t>Jono</t>
-  </si>
-  <si>
-    <t>jonosetiawan@mail.com</t>
+    <t>Barnes</t>
+  </si>
+  <si>
+    <t>James Buchanan</t>
+  </si>
+  <si>
+    <t>buckybarnes@mail.com</t>
+  </si>
+  <si>
+    <t>Sergeant</t>
   </si>
 </sst>
 </file>
@@ -407,11 +386,12 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="23.5546875" customWidth="1"/>
     <col min="4" max="4" width="4.109375" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" customWidth="1"/>
@@ -440,69 +420,33 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="E2">
         <v>8000000</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>23</v>
-      </c>
-      <c r="E3">
-        <v>6000000</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>4000000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
+      <c r="C4" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{4A93266E-AC0C-4464-9B74-03EE936F1257}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{4F6A1DCA-07DB-4FF4-B12A-84848716C4C0}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{125A85AA-B6FC-4F99-AFC5-2067598E6B18}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
